--- a/説明変数.ver.0.3.xlsx
+++ b/説明変数.ver.0.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/21.lab/N225predict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECA79A2-5A51-9D4D-B923-06DBE1731FBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0C2F7C-FF6B-D24E-9D38-BD9D1F14159A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="760" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
+    <workbookView xWindow="140" yWindow="1320" windowWidth="22720" windowHeight="13880" xr2:uid="{2371FD88-9EFA-41C4-B5A7-59EF68300FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="項目一覧" sheetId="2" r:id="rId1"/>
@@ -1788,12 +1788,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E057CC49-40D3-4A39-B2F2-EE9AEC8C29E3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1807,7 +1806,7 @@
     <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="44.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1855,13 +1854,13 @@
     </row>
     <row r="4" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
-        <v>67</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -1870,24 +1869,21 @@
         <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J4" s="5">
-        <f>VLOOKUP(D4,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.7563277562855497E-2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J4" s="5"/>
       <c r="L4" t="str">
         <f>"'"&amp;D4&amp;"'"&amp;","</f>
-        <v>'BLGR_2sigma_p_dev_m',</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'target',</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1915,7 +1911,7 @@
         <v>'trading_day',</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1948,13 +1944,13 @@
     </row>
     <row r="7" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -1963,154 +1959,145 @@
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="J7" s="5">
         <f>VLOOKUP(D7,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.7165785403574798E-2</v>
+        <v>2.36172711158977E-2</v>
       </c>
       <c r="L7" t="str">
         <f>"'"&amp;D7&amp;"'"&amp;","</f>
-        <v>'BLGR_2sigma_m_dev_p',</v>
+        <v>'wd_Monday',</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="J8" s="5">
         <f>VLOOKUP(D8,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.6853555872617898E-2</v>
+        <v>1.95746832020555E-2</v>
       </c>
       <c r="L8" t="str">
         <f>"'"&amp;D8&amp;"'"&amp;","</f>
-        <v>'RSI',</v>
+        <v>'wd_Thursday',</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="J9" s="5">
         <f>VLOOKUP(D9,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.5568760623872903E-2</v>
+        <v>1.63145040901587E-2</v>
       </c>
       <c r="L9" t="str">
         <f>"'"&amp;D9&amp;"'"&amp;","</f>
-        <v>'MA25_slope_m',</v>
+        <v>'wd_Wednesday',</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="J10" s="5">
         <f>VLOOKUP(D10,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.34265430630966E-2</v>
+        <v>1.95746832020555E-2</v>
       </c>
       <c r="L10" t="str">
         <f>"'"&amp;D10&amp;"'"&amp;","</f>
-        <v>'MA50_slope_m',</v>
+        <v>'wd_Thursday',</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J11" s="5">
         <f>VLOOKUP(D11,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.3053282470820899E-2</v>
+        <v>2.4681106998092499E-2</v>
       </c>
       <c r="L11" t="str">
         <f>"'"&amp;D11&amp;"'"&amp;","</f>
-        <v>'BLGR_sigma_m_dev_p',</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'wd_Friday',</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2138,7 +2125,7 @@
         <v>'price_start',</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2166,7 +2153,7 @@
         <v>'price_high',</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2194,7 +2181,7 @@
         <v>'price_low',</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -2222,7 +2209,7 @@
         <v>'price_close',</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2255,13 +2242,13 @@
     </row>
     <row r="17" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -2276,26 +2263,26 @@
         <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="J17" s="5">
         <f>VLOOKUP(D17,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.2554091040505002E-2</v>
+        <v>2.5111549035894298E-2</v>
       </c>
       <c r="L17" t="str">
         <f>"'"&amp;D17&amp;"'"&amp;","</f>
-        <v>'up_cnt_rolling5_1.0',</v>
+        <v>'up_flg',</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -2310,18 +2297,18 @@
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J18" s="5">
         <f>VLOOKUP(D18,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.2044875184677302E-2</v>
+        <v>2.85666178620862E-2</v>
       </c>
       <c r="L18" t="str">
         <f>"'"&amp;D18&amp;"'"&amp;","</f>
-        <v>'up_cnt_rolling5_4.0',</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'down_flg',</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -2354,13 +2341,13 @@
     </row>
     <row r="20" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -2369,32 +2356,32 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="J20" s="5">
         <f>VLOOKUP(D20,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.1612880772780703E-2</v>
+        <v>2.7339774722000498E-2</v>
       </c>
       <c r="L20" t="str">
         <f>"'"&amp;D20&amp;"'"&amp;","</f>
-        <v>'BLGR_sigma_p_dev_p',</v>
+        <v>'up_cnt_rolling5_0.0',</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -2403,32 +2390,32 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>158</v>
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
       </c>
       <c r="J21" s="5">
         <f>VLOOKUP(D21,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.0747901310820801E-2</v>
+        <v>3.2554091040505002E-2</v>
       </c>
       <c r="L21" t="str">
         <f>"'"&amp;D21&amp;"'"&amp;","</f>
-        <v>'MA75_slope_m',</v>
+        <v>'up_cnt_rolling5_1.0',</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -2437,32 +2424,32 @@
         <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>83</v>
       </c>
       <c r="J22" s="5">
         <f>VLOOKUP(D22,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.0730453148362102E-2</v>
+        <v>1.6271129253687101E-2</v>
       </c>
       <c r="L22" t="str">
         <f>"'"&amp;D22&amp;"'"&amp;","</f>
-        <v>'down_must_length',</v>
+        <v>'up_cnt_rolling5_2.0',</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -2471,29 +2458,32 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>84</v>
       </c>
       <c r="J23" s="5">
         <f>VLOOKUP(D23,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.0357540163114E-2</v>
+        <v>2.5864670046993801E-2</v>
       </c>
       <c r="L23" t="str">
         <f>"'"&amp;D23&amp;"'"&amp;","</f>
-        <v>'BLGR_2sigma_m_dev_m',</v>
+        <v>'up_cnt_rolling5_3.0',</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -2502,32 +2492,32 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>85</v>
       </c>
       <c r="J24" s="5">
         <f>VLOOKUP(D24,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>3.0218941517528901E-2</v>
+        <v>3.2044875184677302E-2</v>
       </c>
       <c r="L24" t="str">
         <f>"'"&amp;D24&amp;"'"&amp;","</f>
-        <v>'up_must_length',</v>
+        <v>'up_cnt_rolling5_4.0',</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -2536,32 +2526,32 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>157</v>
+        <v>79</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
       </c>
       <c r="J25" s="5">
         <f>VLOOKUP(D25,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.9745523650340399E-2</v>
+        <v>1.05044977617187E-2</v>
       </c>
       <c r="L25" t="str">
         <f>"'"&amp;D25&amp;"'"&amp;","</f>
-        <v>'MA75_slope_p',</v>
+        <v>'up_cnt_rolling5_5.0',</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
-        <v>30</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -2570,18 +2560,21 @@
         <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J26" s="5">
         <f>VLOOKUP(D26,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.8964358129507001E-2</v>
+        <v>3.0218941517528901E-2</v>
       </c>
       <c r="L26" t="str">
         <f>"'"&amp;D26&amp;"'"&amp;","</f>
-        <v>'RCI9_slope_p',</v>
+        <v>'up_must_length',</v>
       </c>
       <c r="M26" t="s">
         <v>66</v>
@@ -2589,13 +2582,13 @@
     </row>
     <row r="27" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
@@ -2604,32 +2597,32 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s">
-        <v>65</v>
+        <v>88</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J27" s="5">
         <f>VLOOKUP(D27,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.85666178620862E-2</v>
+        <v>3.0730453148362102E-2</v>
       </c>
       <c r="L27" t="str">
         <f>"'"&amp;D27&amp;"'"&amp;","</f>
-        <v>'down_flg',</v>
+        <v>'down_must_length',</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -2638,24 +2631,24 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="J28" s="5">
         <f>VLOOKUP(D28,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.8542691109762802E-2</v>
+        <v>2.2591554081597999E-2</v>
       </c>
       <c r="L28" t="str">
         <f>"'"&amp;D28&amp;"'"&amp;","</f>
-        <v>'RCI9_p',</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'box_length',</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -2688,13 +2681,13 @@
     </row>
     <row r="30" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
@@ -2703,32 +2696,32 @@
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="J30" s="5">
         <f>VLOOKUP(D30,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.8533925974305499E-2</v>
+        <v>2.8542691109762802E-2</v>
       </c>
       <c r="L30" t="str">
         <f>"'"&amp;D30&amp;"'"&amp;","</f>
-        <v>'BLGR_sigma_p_dev_m',</v>
+        <v>'RCI9_p',</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>12</v>
@@ -2737,24 +2730,24 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="J31" s="5">
         <f>VLOOKUP(D31,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.8261872670879699E-2</v>
+        <v>1.72617511496907E-2</v>
       </c>
       <c r="L31" t="str">
         <f>"'"&amp;D31&amp;"'"&amp;","</f>
-        <v>'MA25_dev_m',</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'RCI9_m',</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -2787,13 +2780,13 @@
     </row>
     <row r="33" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>12</v>
@@ -2802,32 +2795,29 @@
         <v>12</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>44</v>
       </c>
       <c r="J33" s="5">
         <f>VLOOKUP(D33,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.8178502244753101E-2</v>
+        <v>2.8964358129507001E-2</v>
       </c>
       <c r="L33" t="str">
         <f>"'"&amp;D33&amp;"'"&amp;","</f>
-        <v>'RSI_slope',</v>
+        <v>'RCI9_slope_p',</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>12</v>
@@ -2836,32 +2826,29 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I34" t="s">
-        <v>91</v>
       </c>
       <c r="J34" s="5">
         <f>VLOOKUP(D34,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.7828066075923499E-2</v>
+        <v>2.5842508642837499E-2</v>
       </c>
       <c r="L34" t="str">
         <f>"'"&amp;D34&amp;"'"&amp;","</f>
-        <v>'MA25_dev_p',</v>
+        <v>'RCI9_slope_m',</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
-        <v>17</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>80</v>
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>12</v>
@@ -2870,32 +2857,29 @@
         <v>12</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="J35" s="5">
         <f>VLOOKUP(D35,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.7339774722000498E-2</v>
+        <v>3.6853555872617898E-2</v>
       </c>
       <c r="L35" t="str">
         <f>"'"&amp;D35&amp;"'"&amp;","</f>
-        <v>'up_cnt_rolling5_0.0',</v>
+        <v>'RSI',</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>12</v>
@@ -2904,24 +2888,24 @@
         <v>12</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>155</v>
+      <c r="I36" t="s">
+        <v>44</v>
       </c>
       <c r="J36" s="5">
         <f>VLOOKUP(D36,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.6437243802668299E-2</v>
+        <v>2.8178502244753101E-2</v>
       </c>
       <c r="L36" t="str">
         <f>"'"&amp;D36&amp;"'"&amp;","</f>
-        <v>'MA50_slope_p',</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'RSI_slope',</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -2952,7 +2936,7 @@
         <v>'MA25',</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -2983,7 +2967,7 @@
         <v>'MA50',</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -3014,7 +2998,7 @@
         <v>'MA75',</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -3041,13 +3025,13 @@
     </row>
     <row r="41" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>12</v>
@@ -3056,32 +3040,29 @@
         <v>12</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J41" s="5">
-        <f>VLOOKUP(D41,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.6111340700403701E-2</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="J41" s="5"/>
       <c r="L41" t="str">
         <f>"'"&amp;D41&amp;"'"&amp;","</f>
-        <v>'MA25_slope_p',</v>
+        <v>'cross_25_50_-1',</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
@@ -3095,19 +3076,16 @@
       <c r="H42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I42" t="s">
-        <v>84</v>
-      </c>
-      <c r="J42" s="5">
-        <f>VLOOKUP(D42,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.5864670046993801E-2</v>
-      </c>
+      <c r="I42" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J42" s="5"/>
       <c r="L42" t="str">
         <f>"'"&amp;D42&amp;"'"&amp;","</f>
-        <v>'up_cnt_rolling5_3.0',</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'cross_25_50_1',</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -3134,13 +3112,13 @@
     </row>
     <row r="44" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>12</v>
@@ -3149,29 +3127,29 @@
         <v>12</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="5">
-        <f>VLOOKUP(D44,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.5842508642837499E-2</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J44" s="5"/>
       <c r="L44" t="str">
         <f>"'"&amp;D44&amp;"'"&amp;","</f>
-        <v>'RCI9_slope_m',</v>
+        <v>'cross_25_75_-1',</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>12</v>
@@ -3185,19 +3163,16 @@
       <c r="H45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I45" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="5">
-        <f>VLOOKUP(D45,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.5111549035894298E-2</v>
-      </c>
+      <c r="I45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" s="5"/>
       <c r="L45" t="str">
         <f>"'"&amp;D45&amp;"'"&amp;","</f>
-        <v>'up_flg',</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'cross_25_75_1',</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -3224,19 +3199,19 @@
     </row>
     <row r="47" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>48</v>
@@ -3244,24 +3219,24 @@
       <c r="H47" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J47" s="5">
-        <f>VLOOKUP(D47,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.4681106998092499E-2</v>
-      </c>
+      <c r="I47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" s="5"/>
       <c r="L47" t="str">
         <f>"'"&amp;D47&amp;"'"&amp;","</f>
-        <v>'wd_Friday',</v>
+        <v>'cross_50_75_-1',</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>12</v>
@@ -3275,16 +3250,16 @@
       <c r="H48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J48" s="5">
-        <f>VLOOKUP(D48,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.36172711158977E-2</v>
-      </c>
+      <c r="I48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J48" s="5"/>
       <c r="L48" t="str">
         <f>"'"&amp;D48&amp;"'"&amp;","</f>
-        <v>'wd_Monday',</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'cross_50_75_1',</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -3317,13 +3292,13 @@
     </row>
     <row r="50" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>12</v>
@@ -3332,32 +3307,32 @@
         <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="J50" s="5">
         <f>VLOOKUP(D50,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.2591554081597999E-2</v>
+        <v>2.6111340700403701E-2</v>
       </c>
       <c r="L50" t="str">
         <f>"'"&amp;D50&amp;"'"&amp;","</f>
-        <v>'box_length',</v>
+        <v>'MA25_slope_p',</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>12</v>
@@ -3369,18 +3344,21 @@
         <v>90</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="J51" s="5">
         <f>VLOOKUP(D51,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>2.19468159161543E-2</v>
+        <v>3.5568760623872903E-2</v>
       </c>
       <c r="L51" t="str">
         <f>"'"&amp;D51&amp;"'"&amp;","</f>
-        <v>'BLGR_sigma_m_dev_m',</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'MA25_slope_m',</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -3410,67 +3388,73 @@
     </row>
     <row r="53" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="J53" s="5">
         <f>VLOOKUP(D53,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>1.95746832020555E-2</v>
+        <v>2.6437243802668299E-2</v>
       </c>
       <c r="L53" t="str">
         <f>"'"&amp;D53&amp;"'"&amp;","</f>
-        <v>'wd_Thursday',</v>
+        <v>'MA50_slope_p',</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="J54" s="5">
         <f>VLOOKUP(D54,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>1.95746832020555E-2</v>
+        <v>3.34265430630966E-2</v>
       </c>
       <c r="L54" t="str">
         <f>"'"&amp;D54&amp;"'"&amp;","</f>
-        <v>'wd_Thursday',</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'MA50_slope_m',</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -3503,13 +3487,13 @@
     </row>
     <row r="56" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>12</v>
@@ -3518,55 +3502,58 @@
         <v>12</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I56" t="s">
-        <v>102</v>
+      <c r="I56" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J56" s="5">
         <f>VLOOKUP(D56,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>1.72617511496907E-2</v>
+        <v>2.9745523650340399E-2</v>
       </c>
       <c r="L56" t="str">
         <f>"'"&amp;D56&amp;"'"&amp;","</f>
-        <v>'RCI9_m',</v>
+        <v>'MA75_slope_p',</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J57" s="5">
         <f>VLOOKUP(D57,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>1.63145040901587E-2</v>
+        <v>3.0747901310820801E-2</v>
       </c>
       <c r="L57" t="str">
         <f>"'"&amp;D57&amp;"'"&amp;","</f>
-        <v>'wd_Wednesday',</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'MA75_slope_m',</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -3599,13 +3586,13 @@
     </row>
     <row r="59" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -3614,32 +3601,32 @@
         <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J59" s="5">
         <f>VLOOKUP(D59,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>1.6271129253687101E-2</v>
+        <v>2.7828066075923499E-2</v>
       </c>
       <c r="L59" t="str">
         <f>"'"&amp;D59&amp;"'"&amp;","</f>
-        <v>'up_cnt_rolling5_2.0',</v>
+        <v>'MA25_dev_p',</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
@@ -3648,24 +3635,24 @@
         <v>12</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J60" s="5">
         <f>VLOOKUP(D60,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>1.05044977617187E-2</v>
+        <v>2.8261872670879699E-2</v>
       </c>
       <c r="L60" t="str">
         <f>"'"&amp;D60&amp;"'"&amp;","</f>
-        <v>'up_cnt_rolling5_5.0',</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'MA25_dev_m',</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -3696,7 +3683,7 @@
         <v>'BLGR_sigma_p',</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -3727,7 +3714,7 @@
         <v>'BLGR_2sigma_p',</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -3758,7 +3745,7 @@
         <v>'BLGR_sigma_m',</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -3789,7 +3776,7 @@
         <v>'BLGR_2sigma_m',</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -3822,13 +3809,13 @@
     </row>
     <row r="66" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>12</v>
@@ -3840,29 +3827,29 @@
         <v>89</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J66" s="5">
         <f>VLOOKUP(D66,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
-        <v>1.0010153627961199E-2</v>
+        <v>3.1612880772780703E-2</v>
       </c>
       <c r="L66" t="str">
         <f>"'"&amp;D66&amp;"'"&amp;","</f>
-        <v>'BLGR_2sigma_p_dev_p',</v>
+        <v>'BLGR_sigma_p_dev_p',</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>12</v>
@@ -3871,21 +3858,24 @@
         <v>12</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>128</v>
+      </c>
+      <c r="J67" s="5">
+        <f>VLOOKUP(D67,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
+        <v>2.8533925974305499E-2</v>
+      </c>
       <c r="L67" t="str">
         <f>"'"&amp;D67&amp;"'"&amp;","</f>
-        <v>'target',</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'BLGR_sigma_p_dev_m',</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -3912,13 +3902,13 @@
     </row>
     <row r="69" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>12</v>
@@ -3927,29 +3917,32 @@
         <v>12</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="I69" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="5">
+        <f>VLOOKUP(D69,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
+        <v>1.0010153627961199E-2</v>
+      </c>
       <c r="L69" t="str">
         <f>"'"&amp;D69&amp;"'"&amp;","</f>
-        <v>'cross_25_50_-1',</v>
+        <v>'BLGR_2sigma_p_dev_p',</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>12</v>
@@ -3958,21 +3951,24 @@
         <v>12</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="I70" t="s">
+        <v>131</v>
+      </c>
+      <c r="J70" s="5">
+        <f>VLOOKUP(D70,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
+        <v>3.7563277562855497E-2</v>
+      </c>
       <c r="L70" t="str">
         <f>"'"&amp;D70&amp;"'"&amp;","</f>
-        <v>'cross_25_50_1',</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'BLGR_2sigma_p_dev_m',</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -3995,13 +3991,13 @@
     </row>
     <row r="72" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>12</v>
@@ -4010,29 +4006,29 @@
         <v>12</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="J72" s="5">
+        <f>VLOOKUP(D72,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
+        <v>3.3053282470820899E-2</v>
+      </c>
       <c r="L72" t="str">
         <f>"'"&amp;D72&amp;"'"&amp;","</f>
-        <v>'cross_25_75_-1',</v>
+        <v>'BLGR_sigma_m_dev_p',</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>12</v>
@@ -4041,21 +4037,21 @@
         <v>12</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="J73" s="5">
+        <f>VLOOKUP(D73,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
+        <v>2.19468159161543E-2</v>
+      </c>
       <c r="L73" t="str">
         <f>"'"&amp;D73&amp;"'"&amp;","</f>
-        <v>'cross_25_75_1',</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>'BLGR_sigma_m_dev_m',</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -4075,13 +4071,13 @@
     </row>
     <row r="75" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>12</v>
@@ -4090,29 +4086,32 @@
         <v>12</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="I75" t="s">
+        <v>201</v>
+      </c>
+      <c r="J75" s="5">
+        <f>VLOOKUP(D75,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
+        <v>3.7165785403574798E-2</v>
+      </c>
       <c r="L75" t="str">
         <f>"'"&amp;D75&amp;"'"&amp;","</f>
-        <v>'cross_50_75_-1',</v>
+        <v>'BLGR_2sigma_m_dev_p',</v>
       </c>
     </row>
     <row r="76" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>12</v>
@@ -4121,29 +4120,24 @@
         <v>12</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="J76" s="5">
+        <f>VLOOKUP(D76,XGB.ver.0.1!$B$3:$C$39,2,FALSE)</f>
+        <v>3.0357540163114E-2</v>
+      </c>
       <c r="L76" t="str">
         <f>"'"&amp;D76&amp;"'"&amp;","</f>
-        <v>'cross_50_75_1',</v>
+        <v>'BLGR_2sigma_m_dev_m',</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:L76" xr:uid="{067AA8B0-1138-8E4E-A14C-ABA30E8FD762}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="〇"/>
-      </filters>
-    </filterColumn>
     <sortState ref="B4:L76">
-      <sortCondition descending="1" ref="J3:J76"/>
+      <sortCondition ref="B3:B76"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
